--- a/02_exported_worksheet/unique_num_nric.xlsx
+++ b/02_exported_worksheet/unique_num_nric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SZ7623233</t>
+          <t>S1510657E</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SH2467824</t>
+          <t>S5484655N</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SP3472533</t>
+          <t>S7705341S</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S0768833K</t>
+          <t>S9787544A</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SA7766801</t>
+          <t>S7766801A</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S2316865C</t>
+          <t>S9731219I</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S1964251W</t>
+          <t>S5050778Z</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SR1005774</t>
+          <t>S8057221N</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,907 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>S1964251W</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X1639705J</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>S1005774R</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>S7638052R</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S2467824H</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>S9677422V</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>S4503582U</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>S3747175Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>S2316865C</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>S0768833K</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>S3472533P</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>S4157126T</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>S5774221L</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>S7213042D</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>S8473437Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>S9622504L</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>X5469301N</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>S4240094S</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>S6426433N</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>S7133213U</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>S7044437Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>S6371473R</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>S0768839J</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>S6774304P</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>S1637819D</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>S2979135F</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>S5333966C</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>S5280767V</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>S3995938O</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>S8351123C</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>S3996483O</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>S8369416A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>S4106269P</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>S7669128F</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>S0515948T</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>S4442396E</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>S3795517K</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>S4878774D</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>S0343378B</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>S0909725X</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>S7634386Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>S3320746C</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>S3305215S</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>S9607889U</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>X9282724E</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>S3712911T</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>S7309368A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>X0389129I</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>S8620958M</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>S2898506K</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>S0708648L</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>S9913791B</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>S7667892Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>S0848434G</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>S7623233Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>X3540461K</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>S7594041I</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>S5469475G</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>S9851079G</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>S7699931X</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>S6503803I</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>S2407871W</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>S9074411V</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>S6962815M</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>X8791922M</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>X5628643F</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>S0201588E</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>S3927452D</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>S1023077Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>S4335636V</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>S7121916U</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>S4796199O</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>S9775057B</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>X8905505G</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>S4008215O</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>S7118359H</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>S3416442R</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>S7443207H</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>S0298635J</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S0279462W</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S6118062M</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S2873813S</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>S4114704Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>S1504698Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>S6159808F</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>S4599173X</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>S3848263J</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X8633329L</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>S4596427P</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>S1966155T</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X0960227H</t>
         </is>
       </c>
     </row>
